--- a/Data/TS2_trend.xlsx
+++ b/Data/TS2_trend.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linda\Documents\UNI\GitHub\ADS_year3_project_8\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0209C39-811E-4FD7-A75E-CFAFF1D639AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30F96E2-DA22-49DC-8E33-80BBC00C539C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -424,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,273 +439,281 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>-16039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>-21763</v>
+        <v>-16039</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>15531</v>
+        <v>-21763</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>25521</v>
+        <v>15531</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>12017</v>
+        <v>25521</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>-90523</v>
+        <v>12017</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>-81899</v>
+        <v>-90523</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>-45202</v>
+        <v>-81899</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>-24956</v>
+        <v>-45202</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>-40515</v>
+        <v>-24956</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>-1435</v>
+        <v>-40515</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>16522</v>
+        <v>-1435</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>1969</v>
+        <v>16522</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>545</v>
+        <v>1969</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>54077</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>170589</v>
+        <v>54077</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>170943</v>
+        <v>170589</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>108463</v>
+        <v>170943</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>90964</v>
+        <v>108463</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>40120</v>
+        <v>90964</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <v>95518</v>
+        <v>40120</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <v>-6799</v>
+        <v>95518</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>-22143</v>
+        <v>-6799</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>72562</v>
+        <v>-22143</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>37370</v>
+        <v>72562</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>-165115</v>
+        <v>37370</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>-317502</v>
+        <v>-165115</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>-112699</v>
+        <v>-317502</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>-71834</v>
+        <v>-112699</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>-26735</v>
+        <v>-71834</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>-41759</v>
+        <v>-26735</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>44548</v>
+        <v>-41759</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>-14332</v>
+        <v>44548</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>-14332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>42140</v>
       </c>
     </row>

--- a/Data/TS2_trend.xlsx
+++ b/Data/TS2_trend.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linda\Documents\UNI\GitHub\ADS_year3_project_8\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30F96E2-DA22-49DC-8E33-80BBC00C539C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -28,8 +22,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,14 +86,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -146,7 +132,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,27 +164,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -230,24 +198,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -423,29 +373,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,7 +398,7 @@
         <v>-16039</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -461,7 +406,7 @@
         <v>-21763</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -469,7 +414,7 @@
         <v>15531</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -477,7 +422,7 @@
         <v>25521</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -485,7 +430,7 @@
         <v>12017</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -493,7 +438,7 @@
         <v>-90523</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -501,7 +446,7 @@
         <v>-81899</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -509,7 +454,7 @@
         <v>-45202</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -517,7 +462,7 @@
         <v>-24956</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -525,7 +470,7 @@
         <v>-40515</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -533,7 +478,7 @@
         <v>-1435</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -541,7 +486,7 @@
         <v>16522</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -549,7 +494,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -557,7 +502,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -565,7 +510,7 @@
         <v>54077</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -573,7 +518,7 @@
         <v>170589</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -581,7 +526,7 @@
         <v>170943</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -589,7 +534,7 @@
         <v>108463</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -597,7 +542,7 @@
         <v>90964</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -605,7 +550,7 @@
         <v>40120</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -613,7 +558,7 @@
         <v>95518</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -621,7 +566,7 @@
         <v>-6799</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -629,7 +574,7 @@
         <v>-22143</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -637,7 +582,7 @@
         <v>72562</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -645,7 +590,7 @@
         <v>37370</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -653,7 +598,7 @@
         <v>-165115</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -661,7 +606,7 @@
         <v>-317502</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -669,7 +614,7 @@
         <v>-112699</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -677,7 +622,7 @@
         <v>-71834</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -685,7 +630,7 @@
         <v>-26735</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -693,7 +638,7 @@
         <v>-41759</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -701,7 +646,7 @@
         <v>44548</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -709,7 +654,7 @@
         <v>-14332</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
